--- a/legal_staircase.xlsx
+++ b/legal_staircase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\chatbot testing\git_hub_advance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\chatbot testing\21sep25chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4B019-41BD-4BCC-B1C1-22BA5C7698E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBE41A-72A8-4E55-9E6C-1DD07DEFCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D864591B-3008-4326-A441-BEF971B80A2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="236">
   <si>
     <t>Business</t>
   </si>
@@ -1415,6 +1415,40 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>What is Pre Sale Notice?</t>
+  </si>
+  <si>
+    <t>what is the staircase of auto finance?</t>
+  </si>
+  <si>
+    <t>Soft Reminder – 0 to 3 DPD
+Overdue Intimation (SMS/Call/IVR) – 3 to 15 DPD
+First Formal Overdue Notice – 15 to 30 DPD
+Demand / Section 90 Notice – 30 to 45 DPD
+Loan Recall Notice – 45 to 60 DPD
+Pre-Repossession Notice – 60 to 75 DPD
+Repossession Activity – 75 to 90 DPD
+Post-Repossession Notice – Immediately after seizure
+Auction / Sale Notice – 15 to 30 days after seizure
+Shortfall Notice – After auction (if amount still due)
+Legal Notice – After shortfall / as required</t>
+  </si>
+  <si>
+    <t>Soft Reminder (SMS/Call/WhatsApp) – 0 to 3 DPD
+Overdue Intimation (IVR + SMS) – 3 to 15 DPD
+First Formal Overdue Notice – 15 to 30 DPD
+Demand Notice – 30 to 45 DPD
+Loan Recall Notice – 45 to 60 DPD
+Pre-Legal / Pre-Recovery Notice – 60 to 75 DPD
+Field Visit / Recovery Agent Visit – 75 to 90 DPD
+Post-Visit Escalation Notice – Immediately after field visit
+Legal / Arbitration Notice – 90+ DPD
+Section 138 / Legal Recovery Notice – After persistent default</t>
+  </si>
+  <si>
+    <t>what is the staircase of consumer finance?</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1468,6 +1502,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1783,9 +1820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B520566A-D579-4FEB-9C4E-D3BE46D37A53}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2202,1276 +2241,1318 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>119</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>119</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C120" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
         <v>220</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>235</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/legal_staircase.xlsx
+++ b/legal_staircase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohit\Documents\chatbot testing\21sep25chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBE41A-72A8-4E55-9E6C-1DD07DEFCAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484E6644-2A13-452B-9327-2E2190CE77D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D864591B-3008-4326-A441-BEF971B80A2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="235">
   <si>
     <t>Business</t>
   </si>
@@ -555,9 +555,6 @@
     <t>What is Pre-Sale Notice?</t>
   </si>
   <si>
-    <t>Sent 7–15 days post-repossession, informing borrower of planned auction and outstanding balance.</t>
-  </si>
-  <si>
     <t>What is Post-Sale Notice?</t>
   </si>
   <si>
@@ -1415,9 +1412,6 @@
   </si>
   <si>
     <t>Answer</t>
-  </si>
-  <si>
-    <t>What is Pre Sale Notice?</t>
   </si>
   <si>
     <t>what is the staircase of auto finance?</t>
@@ -1449,6 +1443,9 @@
   </si>
   <si>
     <t>what is the staircase of consumer finance?</t>
+  </si>
+  <si>
+    <t>In bajaj, it is a notice which is sent before 7–15 days post-repossession, informing borrower of planned auction and outstanding balance.</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B520566A-D579-4FEB-9C4E-D3BE46D37A53}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,16 +1832,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
         <v>229</v>
-      </c>
-      <c r="D1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1852,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
@@ -1866,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -1880,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>23</v>
@@ -1894,7 +1891,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -1908,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -1922,7 +1919,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -1936,7 +1933,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
@@ -1950,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>33</v>
@@ -1964,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -1978,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>37</v>
@@ -1992,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
@@ -2006,7 +2003,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>41</v>
@@ -2020,7 +2017,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>43</v>
@@ -2034,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>45</v>
@@ -2048,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -2062,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>49</v>
@@ -2076,7 +2073,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>51</v>
@@ -2090,7 +2087,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>53</v>
@@ -2104,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>55</v>
@@ -2118,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>57</v>
@@ -2236,354 +2233,354 @@
         <v>73</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>118</v>
+        <v>118</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>123</v>
@@ -2591,41 +2588,41 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>128</v>
@@ -2633,13 +2630,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>129</v>
@@ -2647,237 +2644,237 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>162</v>
@@ -2885,41 +2882,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>167</v>
@@ -2927,83 +2924,83 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>178</v>
@@ -3011,259 +3008,259 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
         <v>213</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>2</v>
@@ -3272,12 +3269,12 @@
         <v>214</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>2</v>
@@ -3286,12 +3283,12 @@
         <v>215</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>2</v>
@@ -3300,12 +3297,12 @@
         <v>216</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>2</v>
@@ -3314,12 +3311,12 @@
         <v>217</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>2</v>
@@ -3328,12 +3325,12 @@
         <v>218</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>2</v>
@@ -3342,68 +3339,68 @@
         <v>219</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>9</v>
@@ -3412,12 +3409,12 @@
         <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>9</v>
@@ -3426,12 +3423,12 @@
         <v>223</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>9</v>
@@ -3440,12 +3437,12 @@
         <v>224</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>9</v>
@@ -3454,12 +3451,12 @@
         <v>225</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>9</v>
@@ -3468,26 +3465,26 @@
         <v>226</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>9</v>
@@ -3496,12 +3493,12 @@
         <v>218</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>9</v>
@@ -3510,49 +3507,35 @@
         <v>219</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C123" t="s">
-        <v>235</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
